--- a/script/DeepSTL_convert/ardupilot_docs/ap_simpleandsuper-simple-modes/result.xlsx
+++ b/script/DeepSTL_convert/ardupilot_docs/ap_simpleandsuper-simple-modes/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14580"/>
+    <workbookView windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="109">
   <si>
     <t>index</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>{'section-id': 1, 'sentence-id': 3, 'sentence': '2.Simple Mode allows you to control the copter relative to the copters heading at take off and relies only on a good compass heading.', 'tl': 'always ( SimpleModealowsyo == contrlcoelrelative = co ) and copterseding == freliesodeofrlesonle )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 5, 'sentence-id': 4, 'sentence': 'Sentence not found.', 'tl': 'always ( not ( Sentence == found ) )'}</t>
   </si>
 </sst>
 </file>
@@ -370,7 +367,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +378,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -855,148 +845,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1357,7 +1347,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2367,7 +2357,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" ht="68" spans="1:13">
+    <row r="27" ht="17" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2398,15 +2388,11 @@
       <c r="J27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" ht="17" spans="1:13">
+    <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2430,7 +2416,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" ht="17" spans="1:13">
+    <row r="29" spans="1:13">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2450,7 +2436,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2">
         <f>COUNTIF(L2:L27,0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M29" s="2"/>
     </row>
